--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -655,10 +655,14 @@
     <t>Appt.WaitList.PatientIEN</t>
   </si>
   <si>
-    <t>Appointment.NoShow,Appointment.Extension[AppointmentExtension].PatientStatus,Appointment.Extension[AppointmentExtension].ServiceStatus</t>
-  </si>
-  <si>
-    <t>appointment.apptStatus,appointment.patientClass,appointment.serviceCategory</t>
+    <t>Appointment.NoShow
+Appointment.Extension[AppointmentExtension].PatientStatus
+Appointment.Extension[AppointmentExtension].ServiceStatus</t>
+  </si>
+  <si>
+    <t>appointment.apptStatus
+appointment.patientClass
+appointment.serviceCategory</t>
   </si>
   <si>
     <t>Request.status</t>
@@ -1183,7 +1187,9 @@
     <t>Appt.WaitList.AppointmentDesiredDate</t>
   </si>
   <si>
-    <t>appointment.dateTime,appointment.id,appointment.visitString</t>
+    <t>appointment.dateTime
+appointment.id
+appointment.visitString</t>
   </si>
   <si>
     <t>Request.occurrence[x]</t>
@@ -1214,10 +1220,13 @@
   </si>
   <si>
     <t>Appt.Appointment.VisitIEN
-Outpat.Visit.COProcessCompleteDateTime,Outpat.Workload.COProcessCompleteDateTime</t>
-  </si>
-  <si>
-    <t>Appointment.CareProvider,Appointment.EncounterNumber,Appointment.Extension[AppointmentExtension].AssociatedEncounterNumber</t>
+Outpat.Visit.COProcessCompleteDateTime
+Outpat.Workload.COProcessCompleteDateTime</t>
+  </si>
+  <si>
+    <t>Appointment.CareProvider
+Appointment.EncounterNumber
+Appointment.Extension[AppointmentExtension].AssociatedEncounterNumber</t>
   </si>
   <si>
     <t>.effectiveTime.high</t>
@@ -1248,7 +1257,8 @@
     <t>744: source value based on PATIENT - LENGTH OF APP'T (44.003-1)</t>
   </si>
   <si>
-    <t>Appt.Appointment.LengthOfAppointment,Appt.AppointmentMultiple.LengthOfAppointment</t>
+    <t>Appt.Appointment.LengthOfAppointment
+Appt.AppointmentMultiple.LengthOfAppointment</t>
   </si>
   <si>
     <t>Appointment.Extension[AppointmentExtension].Length</t>
@@ -1643,10 +1653,19 @@
     <t>Appt.Appointment.LocationIEN</t>
   </si>
   <si>
-    <t>Appointment.CareProvider,Appointment.EnteredAt,Appointment.Location,Appointment.PlacerApptId,Appointment.Type</t>
-  </si>
-  <si>
-    <t>appointment.clinicStop (&gt;44-8),appointment.facility (&gt;44-3),appointment.id,appointment.provider (&gt;44-2600),appointment.service (&gt;44-9),appointment.visitString</t>
+    <t>Appointment.CareProvider
+Appointment.EnteredAt
+Appointment.Location
+Appointment.PlacerApptId
+Appointment.Type</t>
+  </si>
+  <si>
+    <t>appointment.clinicStop (&gt;44-8)
+appointment.facility (&gt;44-3)
+appointment.id
+appointment.provider (&gt;44-2600)
+appointment.service (&gt;44-9)
+appointment.visitString</t>
   </si>
   <si>
     <t>Appointment.participant:va-clinic.required</t>
@@ -2211,9 +2230,9 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="173.57421875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="72.2578125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="116.41796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="130.734375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="39.44921875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="61.80859375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="39.4609375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="29.41796875" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="94.375" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="133.0625" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1726,10 +1726,10 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-a-11-1722-1:If PATIENT – APPOINTMENT (2-1900) = APPOINTMENT (2.98) then fixed value #PART {true}</t>
-  </si>
-  <si>
-    <t>1722-1: fixed value = #PART if PATIENT – APPOINTMENT (2-1900) = APPOINTMENT (2.98)</t>
+a-11-1722-1:If {1900&gt;2.98} then fixed value #PART {true}</t>
+  </si>
+  <si>
+    <t>1722-1: fixed value = #PART if {1900&gt;2.98}</t>
   </si>
   <si>
     <t>Appointment.participant:va-patient.type.coding.display</t>
@@ -1749,10 +1749,10 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-a-11-1722:If PATIENT – APPOINTMENT (2-1900) = APPOINTMENT (2.98) then reference /Patient based on (2-) {true}</t>
-  </si>
-  <si>
-    <t>1722: reference based on PATIENT - (2-) if PATIENT – APPOINTMENT (2-1900) = APPOINTMENT (2.98)</t>
+a-11-1722:If {1900&gt;2.98} then reference /Patient based on (2-) {true}</t>
+  </si>
+  <si>
+    <t>1722: reference based on PATIENT - (2-) if {1900&gt;2.98}</t>
   </si>
   <si>
     <t>Appointment.participant:va-patient.required</t>
@@ -1762,10 +1762,10 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-a-11-1722-2:If PATIENT – APPOINTMENT (2-1900) = APPOINTMENT (2.98) then fixed value #accepted {true}</t>
-  </si>
-  <si>
-    <t>1722-2: fixed value = #accepted if PATIENT – APPOINTMENT (2-1900) = APPOINTMENT (2.98)</t>
+a-11-1722-2:If {1900&gt;2.98} then fixed value #accepted {true}</t>
+  </si>
+  <si>
+    <t>1722-2: fixed value = #accepted if {1900&gt;2.98}</t>
   </si>
   <si>
     <t>Appointment.participant:va-patient.period</t>

--- a/docs/StructureDefinition-Appointment.xlsx
+++ b/docs/StructureDefinition-Appointment.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
